--- a/upls/files.xlsx
+++ b/upls/files.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -32,38 +32,50 @@
     <t>HSC Roll</t>
   </si>
   <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Reg_NO</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>Tonmoy</t>
+  </si>
+  <si>
+    <t>Raihan</t>
+  </si>
+  <si>
+    <t>Anika</t>
+  </si>
+  <si>
+    <t>Asad</t>
+  </si>
+  <si>
+    <t>Monira</t>
+  </si>
+  <si>
+    <t>Jahangir</t>
+  </si>
+  <si>
     <t>Session</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Reg_NO</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Masum</t>
-  </si>
-  <si>
-    <t>2015-2016</t>
-  </si>
-  <si>
-    <t>Doraemon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +89,14 @@
       <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,22 +419,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -421,22 +442,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>121212</v>
+        <v>875465</v>
       </c>
       <c r="C2">
-        <v>121112</v>
+        <v>487554</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>62</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -444,28 +465,132 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>123456</v>
+        <v>124454</v>
       </c>
       <c r="C3">
-        <v>112345</v>
-      </c>
-      <c r="D3">
-        <v>9999</v>
+        <v>234598</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>66</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>102312</v>
+      </c>
+      <c r="C4">
+        <v>487512</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>451230</v>
+      </c>
+      <c r="C5">
+        <v>421678</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>741254</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>85</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>135401</v>
+      </c>
+      <c r="C7">
+        <v>123012</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/upls/files.xlsx
+++ b/upls/files.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -50,25 +50,10 @@
     <t>2015-2016</t>
   </si>
   <si>
-    <t>Tonmoy</t>
-  </si>
-  <si>
-    <t>Raihan</t>
-  </si>
-  <si>
-    <t>Anika</t>
-  </si>
-  <si>
-    <t>Asad</t>
-  </si>
-  <si>
-    <t>Monira</t>
-  </si>
-  <si>
-    <t>Jahangir</t>
-  </si>
-  <si>
     <t>Session</t>
+  </si>
+  <si>
+    <t>Mahfuza</t>
   </si>
 </sst>
 </file>
@@ -403,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -439,158 +424,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>875465</v>
+        <v>101153</v>
       </c>
       <c r="C2">
-        <v>487554</v>
+        <v>457615</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>62</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>124454</v>
-      </c>
-      <c r="C3">
-        <v>234598</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>66</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>102312</v>
-      </c>
-      <c r="C4">
-        <v>487512</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>55</v>
-      </c>
-      <c r="G4">
-        <v>48</v>
-      </c>
-      <c r="H4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>451230</v>
-      </c>
-      <c r="C5">
-        <v>421678</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>73</v>
-      </c>
-      <c r="F5">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>741254</v>
-      </c>
-      <c r="C6">
-        <v>100000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>65</v>
-      </c>
-      <c r="G6">
-        <v>85</v>
-      </c>
-      <c r="H6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>135401</v>
-      </c>
-      <c r="C7">
-        <v>123012</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>80</v>
-      </c>
-      <c r="F7">
-        <v>80</v>
-      </c>
-      <c r="G7">
-        <v>80</v>
-      </c>
-      <c r="H7">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
